--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -660,6 +657,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,25 +703,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -713,10 +710,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -724,36 +718,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -776,35 +741,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1cent"/>
-      <sheetName val="2cents"/>
-      <sheetName val="5cents"/>
-      <sheetName val="10cents"/>
-      <sheetName val="20cents"/>
-      <sheetName val="50cents"/>
-      <sheetName val="1€"/>
-      <sheetName val="2€"/>
-      <sheetName val="Links"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
   <autoFilter ref="A1:C7">
@@ -813,9 +749,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="0"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1087,50 +1023,50 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -1180,13 +1116,13 @@
       <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="11" t="str">
@@ -1194,7 +1130,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1217,13 +1153,13 @@
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="11" t="str">
@@ -1231,7 +1167,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
@@ -1254,13 +1190,13 @@
       <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="I5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="11" t="str">
@@ -1268,7 +1204,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1291,13 +1227,13 @@
       <c r="H6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="11" t="str">
@@ -1305,7 +1241,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1328,13 +1264,13 @@
       <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="11" t="str">
@@ -1342,7 +1278,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -1363,13 +1299,13 @@
       <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="11" t="str">
@@ -1377,7 +1313,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -1398,13 +1334,13 @@
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12">
         <v>0</v>
       </c>
       <c r="L9" s="11" t="str">
@@ -1412,7 +1348,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
@@ -1433,13 +1369,13 @@
       <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="21">
+      <c r="I10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="11" t="str">
@@ -1447,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -1468,13 +1404,13 @@
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="I11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="12">
         <v>0</v>
       </c>
       <c r="L11" s="11" t="str">
@@ -1482,7 +1418,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -1503,13 +1439,13 @@
       <c r="H12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="11" t="str">
@@ -1517,7 +1453,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
@@ -1538,13 +1474,13 @@
       <c r="H13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="12">
         <v>0</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="11" t="str">
@@ -1552,7 +1488,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1575,13 +1511,13 @@
       <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="21" t="s">
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="11" t="str">
@@ -1589,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
@@ -1610,13 +1546,13 @@
       <c r="H15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="12">
         <v>0</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="11" t="str">
@@ -1624,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
@@ -1645,13 +1581,13 @@
       <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="12">
         <v>0</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="11" t="str">
@@ -1659,7 +1595,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
@@ -1680,13 +1616,13 @@
       <c r="H17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="21" t="s">
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="11" t="str">
@@ -1694,7 +1630,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
@@ -1715,13 +1651,13 @@
       <c r="H18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="12">
         <v>0</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L18" s="11" t="str">
@@ -1729,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
@@ -1750,13 +1686,13 @@
       <c r="H19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="11" t="str">
@@ -1764,7 +1700,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
@@ -1785,13 +1721,13 @@
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="21" t="s">
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="11" t="str">
@@ -1799,7 +1735,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
@@ -1820,13 +1756,13 @@
       <c r="H21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="12">
         <v>0</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L21" s="11" t="str">
@@ -1834,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -1855,13 +1791,13 @@
       <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="12">
         <v>0</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="21" t="s">
+      <c r="J22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L22" s="11" t="str">
@@ -1869,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -1890,13 +1826,13 @@
       <c r="H23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="12">
         <v>0</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="21" t="s">
+      <c r="J23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L23" s="11" t="str">
@@ -1904,7 +1840,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -1925,13 +1861,13 @@
       <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="21" t="s">
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L24" s="11" t="str">
@@ -1939,7 +1875,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
@@ -1960,13 +1896,13 @@
       <c r="H25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="12">
         <v>0</v>
       </c>
-      <c r="J25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="21" t="s">
+      <c r="J25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L25" s="11" t="str">
@@ -1974,7 +1910,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
@@ -1999,13 +1935,13 @@
       <c r="H26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="21" t="s">
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="11" t="str">
@@ -2013,7 +1949,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
@@ -2038,13 +1974,13 @@
       <c r="H27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="21" t="s">
+      <c r="I27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L27" s="11" t="str">
@@ -2052,7 +1988,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2077,13 +2013,13 @@
       <c r="H28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="12">
         <v>0</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="21" t="s">
+      <c r="J28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L28" s="11" t="str">
@@ -2091,7 +2027,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2116,13 +2052,13 @@
       <c r="H29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="21" t="s">
+      <c r="I29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L29" s="11" t="str">
@@ -2130,7 +2066,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2155,13 +2091,13 @@
       <c r="H30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="21">
-        <v>2</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="21" t="s">
+      <c r="I30" s="12">
+        <v>3</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="11" t="str">
@@ -2169,7 +2105,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
@@ -2194,13 +2130,13 @@
       <c r="H31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="21" t="s">
+      <c r="I31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="11" t="str">
@@ -2208,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2233,13 +2169,13 @@
       <c r="H32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="12">
         <v>0</v>
       </c>
-      <c r="J32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="21" t="s">
+      <c r="J32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L32" s="11" t="str">
@@ -2247,7 +2183,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2272,13 +2208,13 @@
       <c r="H33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="21" t="s">
+      <c r="I33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L33" s="11" t="str">
@@ -2286,7 +2222,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2311,13 +2247,13 @@
       <c r="H34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="21" t="s">
+      <c r="I34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L34" s="11" t="str">
@@ -2325,7 +2261,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
@@ -2350,13 +2286,13 @@
       <c r="H35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="12">
         <v>2</v>
       </c>
-      <c r="J35" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="21" t="s">
+      <c r="J35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L35" s="11" t="str">
@@ -2364,7 +2300,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
@@ -2389,13 +2325,13 @@
       <c r="H36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="21" t="s">
+      <c r="I36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L36" s="11" t="str">
@@ -2403,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
@@ -2428,13 +2364,13 @@
       <c r="H37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="21" t="s">
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L37" s="11" t="str">
@@ -2442,7 +2378,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2467,13 +2403,13 @@
       <c r="H38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="12">
         <v>1</v>
       </c>
-      <c r="J38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="21" t="s">
+      <c r="J38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L38" s="11" t="str">
@@ -2481,7 +2417,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2506,13 +2442,13 @@
       <c r="H39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="21" t="s">
+      <c r="I39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L39" s="11" t="str">
@@ -2520,7 +2456,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -2545,13 +2481,13 @@
       <c r="H40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="12">
         <v>2</v>
       </c>
-      <c r="J40" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="21" t="s">
+      <c r="J40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L40" s="11" t="str">
@@ -2559,7 +2495,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2584,13 +2520,13 @@
       <c r="H41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="21" t="s">
+      <c r="I41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L41" s="11" t="str">
@@ -2637,88 +2573,88 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="22"/>
+    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="94">
   <si>
     <t>Year</t>
   </si>
@@ -397,6 +397,19 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - 
+Staff of Mercury</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - Sailboat</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - French horn</t>
   </si>
 </sst>
 </file>
@@ -515,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -615,6 +628,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -622,7 +646,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -683,15 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,6 +717,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1020,51 +1047,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -1076,61 +1105,69 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="str">
-        <f t="shared" ref="L3:L41" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="shared" ref="M3:M41" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1138,36 +1175,41 @@
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1">
+      <c r="E4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>54000</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
@@ -1181,30 +1223,31 @@
         <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1217,31 +1260,34 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1255,30 +1301,31 @@
         <v>11</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -1291,204 +1338,232 @@
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="J9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="L9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="12">
         <v>0</v>
       </c>
-      <c r="L10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="L11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1496,22 +1571,24 @@
         <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -1520,397 +1597,455 @@
       <c r="K14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12">
         <v>0</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="12">
         <v>0</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="12">
         <v>1</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="12">
         <v>0</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="12">
         <v>1</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="12">
         <v>0</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
@@ -1926,30 +2061,31 @@
       <c r="E26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="12">
         <v>1</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
@@ -1965,16 +2101,14 @@
       <c r="E27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="12" t="s">
@@ -1983,12 +2117,15 @@
       <c r="K27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2004,30 +2141,31 @@
       <c r="E28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="12">
         <v>0</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2043,16 +2181,14 @@
       <c r="E29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="12" t="s">
@@ -2061,12 +2197,15 @@
       <c r="K29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2082,30 +2221,31 @@
       <c r="E30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="11" t="str">
+      <c r="L30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
@@ -2121,16 +2261,14 @@
       <c r="E31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="12" t="s">
@@ -2139,12 +2277,15 @@
       <c r="K31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2160,30 +2301,31 @@
       <c r="E32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="12">
         <v>0</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2199,16 +2341,14 @@
       <c r="E33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -2217,12 +2357,15 @@
       <c r="K33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2238,16 +2381,14 @@
       <c r="E34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="12" t="s">
@@ -2256,12 +2397,15 @@
       <c r="K34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
@@ -2277,30 +2421,31 @@
       <c r="E35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12">
         <v>2</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="11" t="str">
+      <c r="L35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
@@ -2316,16 +2461,14 @@
       <c r="E36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="12" t="s">
@@ -2334,12 +2477,15 @@
       <c r="K36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
@@ -2355,16 +2501,14 @@
       <c r="E37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="12" t="s">
@@ -2373,12 +2517,15 @@
       <c r="K37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2394,30 +2541,31 @@
       <c r="E38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="12">
         <v>1</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2433,16 +2581,14 @@
       <c r="E39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="12" t="s">
@@ -2451,12 +2597,15 @@
       <c r="K39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -2472,30 +2621,31 @@
       <c r="E40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="12">
         <v>2</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="K40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="11" t="str">
+      <c r="L40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2511,16 +2661,14 @@
       <c r="E41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="12" t="s">
@@ -2529,7 +2677,10 @@
       <c r="K41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="11" t="str">
+      <c r="L41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2538,11 +2689,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:K41">
+  <conditionalFormatting sqref="J3:L41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2554,7 +2705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K41">
+  <conditionalFormatting sqref="J3:L41">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
@@ -2573,15 +2724,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="1" width="4.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
@@ -2592,7 +2743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2603,7 +2754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2614,7 +2765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2625,7 +2776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2636,7 +2787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2647,7 +2798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1050,26 +1050,26 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:E11"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>13</v>
@@ -2165,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2721,18 +2721,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1050,26 +1050,26 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2724,15 +2724,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="1" width="4.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="96">
   <si>
     <t>Year</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>Obv: Mint director Symbol - French horn</t>
+  </si>
+  <si>
+    <t>Bicentenary of the birth of Prince Henry of Orange-Nassau</t>
+  </si>
+  <si>
+    <t>Birth of a Grand duke</t>
   </si>
 </sst>
 </file>
@@ -737,7 +743,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -746,6 +760,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -776,9 +798,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1047,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2685,6 +2707,74 @@
         <v/>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="11" t="str">
+        <f t="shared" ref="M42" si="1">IF(OR(AND(J42&gt;1,J42&lt;&gt;"-"),AND(K42&gt;1,K42&lt;&gt;"-"),AND(L42&gt;1,L42&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="11" t="str">
+        <f t="shared" ref="M43" si="2">IF(OR(AND(J43&gt;1,J43&lt;&gt;"-"),AND(K43&gt;1,K43&lt;&gt;"-"),AND(L43&gt;1,L43&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -2694,6 +2784,40 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:L41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:L41">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L42">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L42">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:L43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2705,8 +2829,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L41">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J43:L43">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5197FCB-A9BF-4958-8F68-F132701E3AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="100">
   <si>
     <t>Year</t>
   </si>
@@ -416,12 +417,24 @@
   </si>
   <si>
     <t>Birth of a Grand duke</t>
+  </si>
+  <si>
+    <t>331.000</t>
+  </si>
+  <si>
+    <t>160.000</t>
+  </si>
+  <si>
+    <t>Photo style of picture</t>
+  </si>
+  <si>
+    <t>1.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,11 +752,99 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -761,22 +862,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -791,16 +876,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1068,30 +1153,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1200,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -1149,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -1185,11 +1270,11 @@
         <v>13</v>
       </c>
       <c r="M3" s="11" t="str">
-        <f t="shared" ref="M3:M41" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M3:M42" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1231,7 +1316,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
@@ -1269,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1309,7 +1394,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1347,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -1385,7 +1470,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -1425,7 +1510,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
@@ -1465,7 +1550,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -1505,7 +1590,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -1545,7 +1630,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
@@ -1585,7 +1670,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1627,7 +1712,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
@@ -1667,7 +1752,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
@@ -1707,7 +1792,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
@@ -1747,7 +1832,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
@@ -1787,7 +1872,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
@@ -1827,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
@@ -1867,7 +1952,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
@@ -1907,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -1947,7 +2032,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -1987,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -2027,7 +2112,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
@@ -2067,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
@@ -2107,7 +2192,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
@@ -2147,7 +2232,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
@@ -2187,7 +2272,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
@@ -2227,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2267,7 +2352,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
@@ -2307,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -2347,7 +2432,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -2387,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
@@ -2427,7 +2512,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
@@ -2467,7 +2552,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
@@ -2507,7 +2592,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
@@ -2547,7 +2632,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -2587,7 +2672,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -2627,7 +2712,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -2667,7 +2752,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2707,20 +2792,26 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2020</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H42" s="9" t="s">
         <v>13</v>
       </c>
@@ -2737,24 +2828,30 @@
         <v>13</v>
       </c>
       <c r="M42" s="11" t="str">
-        <f t="shared" ref="M42" si="1">IF(OR(AND(J42&gt;1,J42&lt;&gt;"-"),AND(K42&gt;1,K42&lt;&gt;"-"),AND(L42&gt;1,L42&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2020</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" s="9" t="s">
         <v>13</v>
       </c>
@@ -2771,7 +2868,251 @@
         <v>13</v>
       </c>
       <c r="M43" s="11" t="str">
-        <f t="shared" ref="M43" si="2">IF(OR(AND(J43&gt;1,J43&lt;&gt;"-"),AND(K43&gt;1,K43&lt;&gt;"-"),AND(L43&gt;1,L43&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="M43" si="1">IF(OR(AND(J43&gt;1,J43&lt;&gt;"-"),AND(K43&gt;1,K43&lt;&gt;"-"),AND(L43&gt;1,L43&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" s="11" t="str">
+        <f t="shared" ref="M44" si="2">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-"),AND(L44&gt;1,L44&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="11" t="str">
+        <f t="shared" ref="M45" si="3">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-"),AND(L45&gt;1,L45&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="11" t="str">
+        <f t="shared" ref="M46" si="4">IF(OR(AND(J46&gt;1,J46&lt;&gt;"-"),AND(K46&gt;1,K46&lt;&gt;"-"),AND(L46&gt;1,L46&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="11" t="str">
+        <f t="shared" ref="M47" si="5">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-"),AND(L47&gt;1,L47&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="11" t="str">
+        <f t="shared" ref="M48" si="6">IF(OR(AND(J48&gt;1,J48&lt;&gt;"-"),AND(K48&gt;1,K48&lt;&gt;"-"),AND(L48&gt;1,L48&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="11" t="str">
+        <f t="shared" ref="M49" si="7">IF(OR(AND(J49&gt;1,J49&lt;&gt;"-"),AND(K49&gt;1,K49&lt;&gt;"-"),AND(L49&gt;1,L49&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2784,6 +3125,159 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:L41">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:L41">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:L44">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:L44">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:L45">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:L45">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L42">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L42">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:L43">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:L43">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:L46">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:L46">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:L47">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:L47">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L48">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L48">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2795,12 +3289,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L41">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:L42">
+  <conditionalFormatting sqref="K49:L49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2812,12 +3306,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:L42">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K49:L49">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:L43">
+  <conditionalFormatting sqref="J49">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2829,7 +3323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:L43">
+  <conditionalFormatting sqref="J49">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
@@ -2841,22 +3335,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
@@ -2867,7 +3361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2878,7 +3372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2889,7 +3383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2900,7 +3394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2911,7 +3405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2922,7 +3416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2935,12 +3429,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5197FCB-A9BF-4958-8F68-F132701E3AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD52430-E918-47C9-9EFF-C41762F31101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="101">
   <si>
     <t>Year</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>1.000</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -758,6 +761,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -853,15 +865,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -883,9 +886,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1160,7 +1163,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>13</v>
@@ -2859,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>13</v>
@@ -2889,8 +2892,8 @@
         <v>60</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="1" t="s">
-        <v>71</v>
+      <c r="G44" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -2898,8 +2901,8 @@
       <c r="I44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="12">
-        <v>0</v>
+      <c r="J44" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>13</v>
@@ -3137,7 +3140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L41">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3154,7 +3157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,7 +3174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3188,7 +3191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:L42">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3205,7 +3208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3222,7 +3225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3239,7 +3242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:L47">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3256,7 +3259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3273,7 +3276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:L48">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3290,7 +3293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3307,7 +3310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:L49">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3324,7 +3327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD52430-E918-47C9-9EFF-C41762F31101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9510B0-8BDF-4DED-BB43-BBA045BCA646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +83,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{8F6AB160-D1A7-4F7F-BD67-0A4F44F56FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Mincovňa Kremnica
+(Slovakia mint (Kremnica))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -122,12 +147,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{3BDE90F3-AFA6-456E-8D25-94EA4334DB91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Mincovňa Kremnica
+(Slovakia mint (Kremnica))</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="118">
   <si>
     <t>Year</t>
   </si>
@@ -169,9 +210,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Obv: Small Hs making up monogram in different direction</t>
   </si>
   <si>
     <t>50th Anniversary - Birh of Henri and 100th Anniversary - Death of Adolphe</t>
@@ -413,15 +451,6 @@
     <t>Obv: Mint director Symbol - French horn</t>
   </si>
   <si>
-    <t>Bicentenary of the birth of Prince Henry of Orange-Nassau</t>
-  </si>
-  <si>
-    <t>Birth of a Grand duke</t>
-  </si>
-  <si>
-    <t>331.000</t>
-  </si>
-  <si>
     <t>160.000</t>
   </si>
   <si>
@@ -431,14 +460,78 @@
     <t>1.000</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>157.500</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Birth of Jean, Grand Duke of Luxembourg</t>
+  </si>
+  <si>
+    <t>40th Anniversary - Wedding of Henri and Maria Teresa</t>
+  </si>
+  <si>
+    <t>Obv: With St. Servatius Bridge instead of mint symbol</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Royal Wedding of Grand Duke Guillaume and Countess Stéphanie de Lannoy</t>
+  </si>
+  <si>
+    <t>numista</t>
+  </si>
+  <si>
+    <t>High convenience description of coins</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol -  Raven</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>11.000</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo 
+"MK"</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Flag of Luxembourg</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>175th Anniversary - Chamber of Deputies and the First Constitution</t>
+  </si>
+  <si>
+    <t>120.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>25th Anniversary - Admission of Grand Duke Henri as a Member of the International Olympic Committee</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Birth of Prince Henry</t>
+  </si>
+  <si>
+    <t>300.000</t>
+  </si>
+  <si>
+    <t>Birth of Prince Charles of Luxembourg</t>
+  </si>
+  <si>
+    <t>Obv: Small Hs making up monogram in right direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +597,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -668,7 +767,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -729,18 +828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +839,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -759,7 +864,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="89">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -768,6 +873,598 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -879,8 +1576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1157,53 +1854,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="14" width="3.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -1216,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -1227,17 +1926,23 @@
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -1245,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="1" t="s">
@@ -1263,21 +1968,27 @@
       <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>13</v>
+      <c r="J3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="11" t="str">
-        <f t="shared" ref="M3:M42" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="11" t="str">
+        <f>IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2004</v>
       </c>
@@ -1285,16 +1996,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1">
         <v>54000</v>
@@ -1305,8 +2016,8 @@
       <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
+      <c r="J4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>13</v>
@@ -1314,20 +2025,26 @@
       <c r="L4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="11" t="str">
+        <f t="shared" ref="O4:O64" si="0">IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2005</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1338,40 +2055,46 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="11" t="str">
+      <c r="J5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
@@ -1381,9 +2104,9 @@
         <v>13</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -1392,20 +2115,26 @@
       <c r="L6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
@@ -1416,40 +2145,46 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="11" t="str">
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -1457,9 +2192,9 @@
         <v>13</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="12" t="s">
@@ -1468,26 +2203,32 @@
       <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
@@ -1497,37 +2238,43 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="str">
+      <c r="L9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
@@ -1537,37 +2284,43 @@
         <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11" t="str">
+      <c r="L10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
@@ -1577,41 +2330,47 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="N11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
@@ -1619,39 +2378,45 @@
       <c r="I12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>13</v>
+      <c r="J12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>13</v>
@@ -1659,49 +2424,55 @@
       <c r="I13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>13</v>
+      <c r="J13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -1710,30 +2481,36 @@
       <c r="L14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
@@ -1741,39 +2518,45 @@
       <c r="I15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>13</v>
+      <c r="J15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>13</v>
@@ -1781,39 +2564,45 @@
       <c r="I16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>13</v>
+      <c r="J16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>13</v>
@@ -1821,39 +2610,45 @@
       <c r="I17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2012</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1861,39 +2656,45 @@
       <c r="I18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>13</v>
+      <c r="J18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2012</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>13</v>
@@ -1901,39 +2702,45 @@
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>13</v>
+      <c r="J19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2013</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1941,39 +2748,45 @@
       <c r="I20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="12">
         <v>1</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="11" t="str">
+      <c r="M20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2014</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>13</v>
@@ -1981,39 +2794,45 @@
       <c r="I21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>13</v>
+      <c r="J21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -2021,39 +2840,45 @@
       <c r="I22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>13</v>
+      <c r="J22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="11" t="str">
+      <c r="M22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>13</v>
@@ -2061,39 +2886,45 @@
       <c r="I23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>13</v>
+      <c r="J23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
@@ -2101,39 +2932,45 @@
       <c r="I24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="12">
         <v>1</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="11" t="str">
+      <c r="M24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2015</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>13</v>
@@ -2141,39 +2978,45 @@
       <c r="I25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>13</v>
+      <c r="J25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="11" t="str">
+      <c r="M25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2016</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
@@ -2181,39 +3024,45 @@
       <c r="I26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="12">
         <v>1</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="11" t="str">
+      <c r="M26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2016</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>13</v>
@@ -2221,7 +3070,7 @@
       <c r="I27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2230,30 +3079,36 @@
       <c r="L27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="11" t="str">
+      <c r="M27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2017</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
@@ -2261,39 +3116,45 @@
       <c r="I28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="12">
         <v>1</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="11" t="str">
+      <c r="M28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2017</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>13</v>
@@ -2301,7 +3162,7 @@
       <c r="I29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K29" s="12" t="s">
@@ -2310,30 +3171,36 @@
       <c r="L29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="11" t="str">
+      <c r="M29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
@@ -2341,39 +3208,45 @@
       <c r="I30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="11" t="str">
+      <c r="M30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>2017</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>13</v>
@@ -2381,7 +3254,7 @@
       <c r="I31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K31" s="12" t="s">
@@ -2390,30 +3263,36 @@
       <c r="L31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="11" t="str">
+      <c r="M31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -2421,39 +3300,45 @@
       <c r="I32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>13</v>
+      <c r="J32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="11" t="str">
+      <c r="M32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>13</v>
@@ -2461,7 +3346,7 @@
       <c r="I33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K33" s="12" t="s">
@@ -2470,30 +3355,36 @@
       <c r="L33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="11" t="str">
+      <c r="M33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2018</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -2501,7 +3392,7 @@
       <c r="I34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="12" t="s">
@@ -2510,30 +3401,36 @@
       <c r="L34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="11" t="str">
+      <c r="M34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2018</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>13</v>
@@ -2541,39 +3438,45 @@
       <c r="I35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="12">
         <v>2</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="11" t="str">
+      <c r="M35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>2018</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -2581,7 +3484,7 @@
       <c r="I36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K36" s="12" t="s">
@@ -2590,30 +3493,36 @@
       <c r="L36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="11" t="str">
+      <c r="M36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>2018</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>13</v>
@@ -2621,7 +3530,7 @@
       <c r="I37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K37" s="12" t="s">
@@ -2630,30 +3539,36 @@
       <c r="L37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="11" t="str">
+      <c r="M37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -2661,39 +3576,45 @@
       <c r="I38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="11" t="str">
+      <c r="M38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>13</v>
@@ -2701,7 +3622,7 @@
       <c r="I39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K39" s="12" t="s">
@@ -2710,30 +3631,36 @@
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="11" t="str">
+      <c r="M39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>13</v>
@@ -2741,39 +3668,45 @@
       <c r="I40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="12">
         <v>2</v>
       </c>
-      <c r="K40" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="L40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M40" s="11" t="str">
+      <c r="M40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>13</v>
@@ -2781,7 +3714,7 @@
       <c r="I41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="12" t="s">
@@ -2790,30 +3723,36 @@
       <c r="L41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="11" t="str">
+      <c r="M41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>2020</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="1" t="s">
-        <v>71</v>
+      <c r="G42" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>13</v>
@@ -2821,8 +3760,8 @@
       <c r="I42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="12">
-        <v>0</v>
+      <c r="J42" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>13</v>
@@ -2830,30 +3769,36 @@
       <c r="L42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="11" t="str">
+      <c r="M42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>2020</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>13</v>
@@ -2861,39 +3806,45 @@
       <c r="I43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="12">
-        <v>1</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>13</v>
+      <c r="J43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="12">
+        <v>2</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="11" t="str">
-        <f t="shared" ref="M43" si="1">IF(OR(AND(J43&gt;1,J43&lt;&gt;"-"),AND(K43&gt;1,K43&lt;&gt;"-"),AND(L43&gt;1,L43&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>2020</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -2901,7 +3852,7 @@
       <c r="I44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K44" s="12" t="s">
@@ -2910,26 +3861,32 @@
       <c r="L44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M44" s="11" t="str">
-        <f t="shared" ref="M44" si="2">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-"),AND(L44&gt;1,L44&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="11" t="str">
+        <f>IF(OR(AND(K44&gt;1,K44&lt;&gt;"-"),AND(L44&gt;1,L44&lt;&gt;"-"),AND(M44&gt;1,M44&lt;&gt;"-"),AND(N44&gt;1,N44&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>2020</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="1" t="s">
@@ -2941,41 +3898,47 @@
       <c r="I45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>13</v>
+      <c r="J45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="11" t="str">
-        <f t="shared" ref="M45" si="3">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-"),AND(L45&gt;1,L45&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>2020</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -2983,39 +3946,45 @@
       <c r="I46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>13</v>
+      <c r="J46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="12">
+        <v>1</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="11" t="str">
-        <f t="shared" ref="M46" si="4">IF(OR(AND(J46&gt;1,J46&lt;&gt;"-"),AND(K46&gt;1,K46&lt;&gt;"-"),AND(L46&gt;1,L46&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>2020</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>13</v>
@@ -3023,7 +3992,7 @@
       <c r="I47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K47" s="12" t="s">
@@ -3032,30 +4001,36 @@
       <c r="L47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="11" t="str">
-        <f t="shared" ref="M47" si="5">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-"),AND(L47&gt;1,L47&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>2020</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>13</v>
@@ -3063,7 +4038,7 @@
       <c r="I48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="12" t="s">
@@ -3072,50 +4047,1402 @@
       <c r="L48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M48" s="11" t="str">
-        <f t="shared" ref="M48" si="6">IF(OR(AND(J48&gt;1,J48&lt;&gt;"-"),AND(K48&gt;1,K48&lt;&gt;"-"),AND(L48&gt;1,L48&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>2020</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="H51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="F53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="11" t="str">
-        <f t="shared" ref="M49" si="7">IF(OR(AND(J49&gt;1,J49&lt;&gt;"-"),AND(K49&gt;1,K49&lt;&gt;"-"),AND(L49&gt;1,L49&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="C56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="12">
+        <v>1</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="12">
+        <v>1</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="12">
+        <v>1</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" s="11" t="str">
+        <f t="shared" ref="O65" si="1">IF(OR(AND(K65&gt;1,K65&lt;&gt;"-"),AND(L65&gt;1,L65&lt;&gt;"-"),AND(M65&gt;1,M65&lt;&gt;"-"),AND(N65&gt;1,N65&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O66" s="11" t="str">
+        <f t="shared" ref="O66:O68" si="2">IF(OR(AND(K66&gt;1,K66&lt;&gt;"-"),AND(L66&gt;1,L66&lt;&gt;"-"),AND(M66&gt;1,M66&lt;&gt;"-"),AND(N66&gt;1,N66&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O67" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="12">
+        <v>0</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69" s="11" t="str">
+        <f t="shared" ref="O69:O71" si="3">IF(OR(AND(K69&gt;1,K69&lt;&gt;"-"),AND(L69&gt;1,L69&lt;&gt;"-"),AND(M69&gt;1,M69&lt;&gt;"-"),AND(N69&gt;1,N69&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O71" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O72" s="11" t="str">
+        <f t="shared" ref="O72" si="4">IF(OR(AND(K72&gt;1,K72&lt;&gt;"-"),AND(L72&gt;1,L72&lt;&gt;"-"),AND(M72&gt;1,M72&lt;&gt;"-"),AND(N72&gt;1,N72&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="12">
+        <v>1</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O73" s="11" t="str">
+        <f t="shared" ref="O73:O76" si="5">IF(OR(AND(K73&gt;1,K73&lt;&gt;"-"),AND(L73&gt;1,L73&lt;&gt;"-"),AND(M73&gt;1,M73&lt;&gt;"-"),AND(N73&gt;1,N73&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O74" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O76" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" s="12">
+        <v>1</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O77" s="11" t="str">
+        <f t="shared" ref="O77:O78" si="6">IF(OR(AND(K77&gt;1,K77&lt;&gt;"-"),AND(L77&gt;1,L77&lt;&gt;"-"),AND(M77&gt;1,M77&lt;&gt;"-"),AND(N77&gt;1,N77&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O78" s="11" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3123,11 +5450,1287 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:L41">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="K41:M41 K40:L40 N40:N64 K3:N39">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:M41 K40:L40 N40:N64 K3:N39">
+    <cfRule type="containsText" dxfId="88" priority="195" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:M44">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:M44">
+    <cfRule type="containsText" dxfId="87" priority="193" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:M45">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:M45">
+    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:M42">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:M42">
+    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:M43">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:M43">
+    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:M46">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:M46">
+    <cfRule type="containsText" dxfId="83" priority="185" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:M47">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:M47">
+    <cfRule type="containsText" dxfId="82" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="81" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:M48">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:M48">
+    <cfRule type="containsText" dxfId="80" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="79" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M49">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M49">
+    <cfRule type="containsText" dxfId="78" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="77" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:M50">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:M50">
+    <cfRule type="containsText" dxfId="76" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M58">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M58">
+    <cfRule type="containsText" dxfId="75" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:M51">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:M51">
+    <cfRule type="containsText" dxfId="74" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="73" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:M52">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:M52">
+    <cfRule type="containsText" dxfId="72" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="containsText" dxfId="71" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:M53">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:M53">
+    <cfRule type="containsText" dxfId="70" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="69" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="68" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="67" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56:M56">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56:M56">
+    <cfRule type="containsText" dxfId="66" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:M57">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:M57">
+    <cfRule type="containsText" dxfId="65" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="containsText" dxfId="64" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="containsText" dxfId="63" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:M59">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:M59">
+    <cfRule type="containsText" dxfId="62" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:M62">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:M62">
+    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="containsText" dxfId="60" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:M60">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:M60">
+    <cfRule type="containsText" dxfId="59" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:M54">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:M54">
+    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:M55">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:M55">
+    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40">
+    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:M63">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:M63">
+    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:M64">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:M64">
+    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:M65">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:M65">
+    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66:M66">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66:M66">
+    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67:M67">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67:M67">
+    <cfRule type="containsText" dxfId="40" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="containsText" dxfId="38" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
+    <cfRule type="containsText" dxfId="37" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68:M68">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68:M68">
+    <cfRule type="containsText" dxfId="36" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69">
+    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="containsText" dxfId="34" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="containsText" dxfId="33" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="containsText" dxfId="32" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M70">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M70">
+    <cfRule type="containsText" dxfId="31" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="containsText" dxfId="30" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="containsText" dxfId="29" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="containsText" dxfId="28" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71:M71">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71:M71">
+    <cfRule type="containsText" dxfId="27" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73">
+    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:M74">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:M74">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:M72">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:M72">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75:M75">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75:M75">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N77">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3139,12 +6742,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L41">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L44">
+  <conditionalFormatting sqref="N77">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3156,29 +6759,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L44">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:L45">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:L45">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:L42">
+  <conditionalFormatting sqref="L77">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N78">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3190,12 +6776,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:L42">
+  <conditionalFormatting sqref="N78">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:L43">
+  <conditionalFormatting sqref="K78">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78:M78">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3207,29 +6805,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:L43">
+  <conditionalFormatting sqref="L78:M78">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:L46">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:L46">
+  <conditionalFormatting sqref="K78">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L47">
+  <conditionalFormatting sqref="M77">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3241,12 +6827,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L47">
+  <conditionalFormatting sqref="M77">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K75">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3258,12 +6844,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K75">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L48">
+  <conditionalFormatting sqref="N76">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3275,12 +6861,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L48">
+  <conditionalFormatting sqref="N76">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="L76:M76">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3292,12 +6878,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="L76:M76">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:L49">
+  <conditionalFormatting sqref="K76">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3309,12 +6895,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:L49">
+  <conditionalFormatting sqref="K76">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="K58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3326,7 +6912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
@@ -3339,95 +6925,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="1" width="4.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3438,10 +7035,11 @@
     <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{69B11849-A005-4254-98A5-4A3E0FFD3747}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9510B0-8BDF-4DED-BB43-BBA045BCA646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B337BE-9F2F-492F-846C-D5B22B02E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>Obv: Small Hs making up monogram in right direction</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1860,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1881,22 +1881,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
       <c r="G1" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
@@ -1906,40 +1906,40 @@
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1947,41 +1947,41 @@
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="12">
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="11" t="str">
         <f>IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1993,43 +1993,43 @@
         <v>2004</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1">
         <v>54000</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" s="11" t="str">
         <f t="shared" ref="O4:O64" si="0">IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-")),"Can exchange","")</f>
@@ -2041,39 +2041,39 @@
         <v>2005</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="12">
         <v>1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2085,41 +2085,41 @@
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2131,39 +2131,39 @@
         <v>2006</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="12">
         <v>1</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2175,39 +2175,39 @@
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2219,41 +2219,41 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="12">
         <v>1</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2265,41 +2265,41 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="12">
         <v>1</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2311,41 +2311,41 @@
         <v>2008</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="12">
         <v>0</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2357,41 +2357,41 @@
         <v>2009</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="12">
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2403,41 +2403,41 @@
         <v>2009</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="12">
         <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2449,43 +2449,43 @@
         <v>2009</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2497,41 +2497,41 @@
         <v>2010</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="12">
         <v>1</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2543,41 +2543,41 @@
         <v>2011</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="12">
         <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2589,41 +2589,41 @@
         <v>2012</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="12">
         <v>1</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2635,41 +2635,41 @@
         <v>2012</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="12">
         <v>1</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2681,41 +2681,41 @@
         <v>2012</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="12">
         <v>1</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2727,41 +2727,41 @@
         <v>2013</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="12">
         <v>1</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2773,41 +2773,41 @@
         <v>2014</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="12">
         <v>1</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2819,41 +2819,41 @@
         <v>2014</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="12">
         <v>1</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2865,41 +2865,41 @@
         <v>2015</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="12">
         <v>1</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2911,41 +2911,41 @@
         <v>2015</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" s="12">
         <v>1</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2957,41 +2957,41 @@
         <v>2015</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="12">
         <v>1</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3003,41 +3003,41 @@
         <v>2016</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" s="12">
         <v>1</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3049,41 +3049,41 @@
         <v>2016</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3095,41 +3095,41 @@
         <v>2017</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="12">
         <v>1</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3141,41 +3141,41 @@
         <v>2017</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3187,41 +3187,41 @@
         <v>2017</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="12">
         <v>3</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3233,41 +3233,41 @@
         <v>2017</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3279,41 +3279,41 @@
         <v>2018</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="12">
         <v>1</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3325,41 +3325,41 @@
         <v>2018</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3371,41 +3371,41 @@
         <v>2018</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3417,41 +3417,41 @@
         <v>2018</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="12">
         <v>2</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3463,41 +3463,41 @@
         <v>2018</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3509,41 +3509,41 @@
         <v>2018</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3555,41 +3555,41 @@
         <v>2019</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" s="12">
         <v>1</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3601,41 +3601,41 @@
         <v>2019</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O39" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3647,41 +3647,41 @@
         <v>2019</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" s="12">
         <v>2</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3693,41 +3693,41 @@
         <v>2019</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3739,41 +3739,41 @@
         <v>2020</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O42" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3785,41 +3785,41 @@
         <v>2020</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" s="12">
         <v>2</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O43" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3831,41 +3831,41 @@
         <v>2020</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O44" s="11" t="str">
         <f>IF(OR(AND(K44&gt;1,K44&lt;&gt;"-"),AND(L44&gt;1,L44&lt;&gt;"-"),AND(M44&gt;1,M44&lt;&gt;"-"),AND(N44&gt;1,N44&lt;&gt;"-")),"Can exchange","")</f>
@@ -3877,41 +3877,41 @@
         <v>2020</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" s="12">
         <v>1</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3923,43 +3923,43 @@
         <v>2020</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" s="12">
         <v>1</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3971,41 +3971,41 @@
         <v>2020</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O47" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4017,41 +4017,41 @@
         <v>2020</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4063,43 +4063,43 @@
         <v>2020</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="F49" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4111,41 +4111,41 @@
         <v>2021</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" s="12">
         <v>1</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O50" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4157,41 +4157,41 @@
         <v>2021</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4203,43 +4203,43 @@
         <v>2021</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" s="12">
         <v>1</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O52" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4251,43 +4251,43 @@
         <v>2021</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O53" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4299,41 +4299,41 @@
         <v>2021</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O54" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4345,43 +4345,43 @@
         <v>2021</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="F55" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O55" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4393,41 +4393,41 @@
         <v>2021</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" s="12">
         <v>1</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O56" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4439,41 +4439,41 @@
         <v>2021</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O57" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4485,43 +4485,43 @@
         <v>2021</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K58" s="12">
         <v>1</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O58" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4533,43 +4533,43 @@
         <v>2021</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O59" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4581,41 +4581,41 @@
         <v>2021</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O60" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4627,43 +4627,43 @@
         <v>2021</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4675,41 +4675,41 @@
         <v>2022</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K62" s="12">
         <v>1</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O62" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4721,41 +4721,41 @@
         <v>2022</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O63" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4767,39 +4767,39 @@
         <v>2022</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O64" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4811,41 +4811,41 @@
         <v>2022</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K65" s="12">
         <v>1</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O65" s="11" t="str">
         <f t="shared" ref="O65" si="1">IF(OR(AND(K65&gt;1,K65&lt;&gt;"-"),AND(L65&gt;1,L65&lt;&gt;"-"),AND(M65&gt;1,M65&lt;&gt;"-"),AND(N65&gt;1,N65&lt;&gt;"-")),"Can exchange","")</f>
@@ -4857,41 +4857,41 @@
         <v>2022</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O66" s="11" t="str">
         <f t="shared" ref="O66:O68" si="2">IF(OR(AND(K66&gt;1,K66&lt;&gt;"-"),AND(L66&gt;1,L66&lt;&gt;"-"),AND(M66&gt;1,M66&lt;&gt;"-"),AND(N66&gt;1,N66&lt;&gt;"-")),"Can exchange","")</f>
@@ -4903,39 +4903,39 @@
         <v>2022</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O67" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4947,41 +4947,41 @@
         <v>2022</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" s="12">
         <v>0</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O68" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4993,41 +4993,41 @@
         <v>2022</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O69" s="11" t="str">
         <f t="shared" ref="O69:O71" si="3">IF(OR(AND(K69&gt;1,K69&lt;&gt;"-"),AND(L69&gt;1,L69&lt;&gt;"-"),AND(M69&gt;1,M69&lt;&gt;"-"),AND(N69&gt;1,N69&lt;&gt;"-")),"Can exchange","")</f>
@@ -5039,39 +5039,39 @@
         <v>2022</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O70" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5083,41 +5083,41 @@
         <v>2023</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O71" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5129,43 +5129,43 @@
         <v>2023</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O72" s="11" t="str">
         <f t="shared" ref="O72" si="4">IF(OR(AND(K72&gt;1,K72&lt;&gt;"-"),AND(L72&gt;1,L72&lt;&gt;"-"),AND(M72&gt;1,M72&lt;&gt;"-"),AND(N72&gt;1,N72&lt;&gt;"-")),"Can exchange","")</f>
@@ -5177,41 +5177,41 @@
         <v>2023</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M73" s="12">
         <v>1</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O73" s="11" t="str">
         <f t="shared" ref="O73:O76" si="5">IF(OR(AND(K73&gt;1,K73&lt;&gt;"-"),AND(L73&gt;1,L73&lt;&gt;"-"),AND(M73&gt;1,M73&lt;&gt;"-"),AND(N73&gt;1,N73&lt;&gt;"-")),"Can exchange","")</f>
@@ -5223,39 +5223,39 @@
         <v>2023</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O74" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5267,41 +5267,41 @@
         <v>2023</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O75" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5313,43 +5313,43 @@
         <v>2023</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O76" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5361,41 +5361,41 @@
         <v>2023</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M77" s="12">
         <v>1</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O77" s="11" t="str">
         <f t="shared" ref="O77:O78" si="6">IF(OR(AND(K77&gt;1,K77&lt;&gt;"-"),AND(L77&gt;1,L77&lt;&gt;"-"),AND(M77&gt;1,M77&lt;&gt;"-"),AND(N77&gt;1,N77&lt;&gt;"-")),"Can exchange","")</f>
@@ -5407,39 +5407,39 @@
         <v>2023</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O78" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6941,13 +6941,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6955,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6966,10 +6966,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6977,10 +6977,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -6988,10 +6988,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6999,10 +6999,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -7010,10 +7010,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -7021,10 +7021,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
